--- a/Documentation/RetoBE.xlsx
+++ b/Documentation/RetoBE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neoris0-my.sharepoint.com/personal/yerizk_zarate_neoris_com/Documents/Desktop/QC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neoris0-my.sharepoint.com/personal/yerizk_zarate_neoris_com/Documents/Documents/BackendAutomation/backend_karate/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27A4E00-DD1A-41B6-BB1A-2E479F934E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{B27A4E00-DD1A-41B6-BB1A-2E479F934E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F151ADC7-745B-4031-8749-A9CCD908D58E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E0094122-8871-453E-A83D-CAE7C7B940F8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Plan de pruebas Automatizacion BE</t>
   </si>
@@ -195,6 +195,54 @@
   <si>
     <t xml:space="preserve">El servicio responde con un Status 204 Ok No content, no permite la eliminación de los registros 
 </t>
+  </si>
+  <si>
+    <t>Concatenar el servicio https://reqres.in/api/users/(id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecutar el servicio para consultar un registro especifico </t>
+  </si>
+  <si>
+    <t>SINGLE USER</t>
+  </si>
+  <si>
+    <t>ADD FIELDS</t>
+  </si>
+  <si>
+    <t>Agrear los campos para insertar el usuario
+{
+    "name": "morpheus",
+    "job": "leader",
+     "Country":"Col"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio responde con un Status 400 No debe aceptar campos que no sean correspondientes al servicio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>Concatenar el servicio https://reqres.in/api/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio responde con un Status 200 No debe aceptar campos que no sean correspondientes al servicio  </t>
+  </si>
+  <si>
+    <t>Agregar los campos para registar
+{
+    "email": "liz.holt@reqres.in",
+    "password": "pistol123"
+}</t>
   </si>
 </sst>
 </file>
@@ -239,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -299,6 +347,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -316,51 +373,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +758,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3617103-7A27-466E-B2E0-9C4835876E07}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +797,8 @@
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -754,9 +813,12 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3">
@@ -771,9 +833,12 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="F2" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -786,9 +851,10 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -801,323 +867,559 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10">
         <v>4</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="3">
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="F29:F33"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
